--- a/nhật.xlsx
+++ b/nhật.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\SCG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119079C7-3E6C-4E1C-B822-3B30B40AE5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="758">
   <si>
     <t>Name</t>
   </si>
@@ -2287,12 +2293,15 @@
   </si>
   <si>
     <t>https://www.facebook.com/thien.vy.108?fref=ts</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2503,8 +2512,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2512,12 +2521,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2559,7 +2571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2592,9 +2604,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2627,6 +2656,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2802,11 +2848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,7 +2865,7 @@
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2838,8 +2884,11 @@
       <c r="G2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2859,7 +2908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2899,7 +2948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2919,7 +2968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2939,7 +2988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2959,7 +3008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
@@ -2979,7 +3028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2999,7 +3048,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
@@ -3019,7 +3068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
@@ -3039,7 +3088,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -3059,7 +3108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -3079,7 +3128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -3099,7 +3148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -4277,7 +4326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
@@ -9423,92 +9472,92 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1"/>
-    <hyperlink ref="G20" r:id="rId2"/>
-    <hyperlink ref="G30" r:id="rId3"/>
-    <hyperlink ref="G34" r:id="rId4"/>
-    <hyperlink ref="G41" r:id="rId5"/>
-    <hyperlink ref="H41" r:id="rId6"/>
-    <hyperlink ref="G44" r:id="rId7"/>
-    <hyperlink ref="G50" r:id="rId8"/>
-    <hyperlink ref="G71" r:id="rId9"/>
-    <hyperlink ref="G77" r:id="rId10"/>
-    <hyperlink ref="G82" r:id="rId11"/>
-    <hyperlink ref="G97" r:id="rId12"/>
-    <hyperlink ref="G86" r:id="rId13"/>
-    <hyperlink ref="G88" r:id="rId14"/>
-    <hyperlink ref="G84" r:id="rId15"/>
-    <hyperlink ref="G108" r:id="rId16"/>
-    <hyperlink ref="H119" r:id="rId17"/>
-    <hyperlink ref="G119" r:id="rId18"/>
-    <hyperlink ref="G120" r:id="rId19"/>
-    <hyperlink ref="G128" r:id="rId20"/>
-    <hyperlink ref="G130" r:id="rId21"/>
-    <hyperlink ref="G133" r:id="rId22"/>
-    <hyperlink ref="G110" r:id="rId23"/>
-    <hyperlink ref="G118" r:id="rId24"/>
-    <hyperlink ref="G122" r:id="rId25"/>
-    <hyperlink ref="G68" r:id="rId26"/>
-    <hyperlink ref="G92" r:id="rId27"/>
-    <hyperlink ref="G146" r:id="rId28"/>
-    <hyperlink ref="G149" r:id="rId29"/>
-    <hyperlink ref="H149" r:id="rId30"/>
-    <hyperlink ref="G158" r:id="rId31"/>
-    <hyperlink ref="G160" r:id="rId32"/>
-    <hyperlink ref="G162" r:id="rId33"/>
-    <hyperlink ref="G164" r:id="rId34"/>
-    <hyperlink ref="G163" r:id="rId35"/>
-    <hyperlink ref="G169" r:id="rId36"/>
-    <hyperlink ref="G171" r:id="rId37"/>
-    <hyperlink ref="G175" r:id="rId38"/>
-    <hyperlink ref="G159" r:id="rId39"/>
-    <hyperlink ref="G173" r:id="rId40"/>
-    <hyperlink ref="G174" r:id="rId41"/>
-    <hyperlink ref="G155" r:id="rId42"/>
-    <hyperlink ref="G75" r:id="rId43"/>
-    <hyperlink ref="G184" r:id="rId44"/>
-    <hyperlink ref="G179" r:id="rId45"/>
-    <hyperlink ref="G186" r:id="rId46"/>
-    <hyperlink ref="G187" r:id="rId47"/>
-    <hyperlink ref="G190" r:id="rId48"/>
-    <hyperlink ref="G193" r:id="rId49"/>
-    <hyperlink ref="G196" r:id="rId50"/>
-    <hyperlink ref="H203" r:id="rId51"/>
-    <hyperlink ref="G203" r:id="rId52"/>
-    <hyperlink ref="G198" r:id="rId53"/>
-    <hyperlink ref="G210" r:id="rId54"/>
-    <hyperlink ref="G205" r:id="rId55"/>
-    <hyperlink ref="G211" r:id="rId56"/>
-    <hyperlink ref="G36" r:id="rId57"/>
-    <hyperlink ref="G17" r:id="rId58"/>
-    <hyperlink ref="G65" r:id="rId59"/>
-    <hyperlink ref="G67" r:id="rId60"/>
-    <hyperlink ref="G72" r:id="rId61"/>
-    <hyperlink ref="G73" r:id="rId62"/>
-    <hyperlink ref="G78" r:id="rId63"/>
-    <hyperlink ref="G79" r:id="rId64"/>
-    <hyperlink ref="G85" r:id="rId65"/>
-    <hyperlink ref="G90" r:id="rId66"/>
-    <hyperlink ref="G95" r:id="rId67"/>
-    <hyperlink ref="G103" r:id="rId68"/>
-    <hyperlink ref="G104" r:id="rId69"/>
-    <hyperlink ref="G125" r:id="rId70"/>
-    <hyperlink ref="G131" r:id="rId71"/>
-    <hyperlink ref="G134" r:id="rId72"/>
-    <hyperlink ref="G142" r:id="rId73"/>
-    <hyperlink ref="G143" r:id="rId74"/>
-    <hyperlink ref="G148" r:id="rId75"/>
-    <hyperlink ref="G176" r:id="rId76"/>
-    <hyperlink ref="G194" r:id="rId77"/>
-    <hyperlink ref="G170" r:id="rId78"/>
-    <hyperlink ref="G153" r:id="rId79"/>
+    <hyperlink ref="G16" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G20" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G34" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G41" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H41" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G44" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G50" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G71" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G77" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="G82" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G97" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="G86" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="G88" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G84" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="G108" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H119" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G119" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G120" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G128" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G130" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="G133" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="G110" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="G118" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="G122" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G68" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G92" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="G146" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="G149" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="H149" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="G158" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="G160" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="G162" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="G164" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="G163" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="G169" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="G171" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="G175" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="G159" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="G173" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="G174" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="G155" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="G75" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="G184" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="G179" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="G186" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="G187" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="G190" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="G193" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="G196" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="H203" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="G203" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="G198" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="G210" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="G205" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="G211" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="G36" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="G17" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="G65" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="G67" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="G72" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="G73" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="G78" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="G79" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="G85" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="G90" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="G95" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="G103" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="G104" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="G125" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="G131" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="G134" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="G142" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="G143" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="G148" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="G176" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="G194" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="G170" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="G153" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
